--- a/实训项目监管系统.xlsx
+++ b/实训项目监管系统.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PO设计" sheetId="1" r:id="rId1"/>
-    <sheet name="页面方法设计" sheetId="2" r:id="rId2"/>
+    <sheet name="管理员页面方法设计" sheetId="2" r:id="rId2"/>
+    <sheet name="教师 页面方法设计" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="271">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -393,10 +394,6 @@
   </si>
   <si>
     <t>小组id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaderID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -638,15 +635,464 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>system_manager.jsp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需方法</t>
+    <t>教师信息-查看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师信息-添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeManagementRight</t>
+  </si>
+  <si>
+    <t>getManagementRights</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertOneTeacher</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllTeachers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addManagementRight</t>
+  </si>
+  <si>
+    <t>班级-搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllClasses/getClassesBy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>setUserStatusByID</t>
+  </si>
+  <si>
+    <t>班级信息-添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加学生信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertOneStudnt</t>
+  </si>
+  <si>
+    <t>findUserInfoByID</t>
+  </si>
+  <si>
+    <t>个人信息-查看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息-修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateUserInfo</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyPasswd</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>学生信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getStudentsByClassID</t>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getStudentsBy/getClassesBy/getTeachersBy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情-正在管理的班级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情-正在管理的班级-删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情-正在管理的班级-增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情-正在听课的班级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情-正在听课的班级-删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情-正在听课的班级-增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMonitoringRights</t>
+  </si>
+  <si>
+    <t>removeMonitoringRight</t>
+  </si>
+  <si>
+    <t>addMonitoringRight</t>
+  </si>
+  <si>
+    <t>工号/姓名/性别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师工号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师工号/班级id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号|学号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取禁用状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserStatusByID</t>
+  </si>
+  <si>
+    <t>insertOneClass/getClassesBy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级名称/班级名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级id/学号/姓名/性别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号|学号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像/邮箱/手机号码/自我介绍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号|学号/密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getHistoryMR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师工号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入参</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有教师信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一条教师信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取教师正在管理的班级列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除教师的班级管理权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给教师添加班级管理权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取教师正在听课的班级列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除教师的班级听课权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给教师添加班级听课权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对班级名称进行模糊查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按id获取用户状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按id设置用户状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用|解禁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按名称添加班级/根据名称检索班级列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一条学生信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一条用户详细信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户详细信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆 获取用户实体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按班级检索学生信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊查询：教师姓名|工号|学生姓名|学号|班级名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取教师当前管理的班级列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取教师历史管理的实训列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建实训任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertOneProject</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实训任务名称/每组人数上限/实训周期/实训项目内容/内容文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交一个实训任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目分发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertOneItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称/组长id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建一个小组任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看进度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取班级正在进行中的所有项目的概况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getItemsByClassID/getLatestItemStageByItemID/getUserByID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>startDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段开始日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划天数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/11/19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看进度-详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看进度-审核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getGroupByID/getMembersByGroupID/getStagesByItemID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgroupMember</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属小组id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>--小组组员表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看进度-详情-查看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getStageDateByStageID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取阶段数据（office）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>setStageState</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新阶段状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过|不通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifiedDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近修改的时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitemStage表增加startDate/schedule/modifiedDate字段
+Tgroup增添groupNumber字段
+新增TgroupMember表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +1100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,6 +1147,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="华文行楷"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -754,7 +1207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -764,11 +1217,18 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1052,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1072,616 +1532,663 @@
     <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B59" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>144</v>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1693,25 +2200,299 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="50.77734375" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
         <v>155</v>
       </c>
-      <c r="B1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>156</v>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1719,4 +2500,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>